--- a/data/trans_camb/P1434-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P1434-Edad-trans_camb.xlsx
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6721348413438393</v>
+        <v>-0.7842578301233272</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.6776876601165325</v>
+        <v>-0.6756949700831099</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6709017355949924</v>
+        <v>-0.6782745526109922</v>
       </c>
     </row>
     <row r="12">
@@ -771,13 +771,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3378991318959292</v>
+        <v>-0.3412235612238761</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3700196364877078</v>
+        <v>-0.5063658528298077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3401765239534085</v>
+        <v>-0.3417708896669936</v>
       </c>
     </row>
     <row r="18">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.528573694541802</v>
+        <v>1.265198088353761</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6147223101011894</v>
+        <v>0.6130821584415505</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7083947359048388</v>
+        <v>0.7188049355396026</v>
       </c>
     </row>
     <row r="19">
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.046340038008952</v>
+        <v>-2.209067704922384</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.289383601482798</v>
+        <v>-1.469512944268652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7063534475734778</v>
+        <v>-0.7133674506860078</v>
       </c>
     </row>
     <row r="24">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1759676177630696</v>
+        <v>-0.175298926050928</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8316087048840981</v>
+        <v>0.7202930654361206</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.013098520478825</v>
+        <v>1.862697980590428</v>
       </c>
     </row>
     <row r="25">
@@ -916,9 +916,11 @@
         </is>
       </c>
       <c r="C26" s="6" t="inlineStr"/>
-      <c r="D26" s="6" t="inlineStr"/>
+      <c r="D26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6127622699620948</v>
+        <v>-0.5629660716539313</v>
       </c>
     </row>
     <row r="27">
@@ -929,9 +931,11 @@
         </is>
       </c>
       <c r="C27" s="6" t="inlineStr"/>
-      <c r="D27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>3.039811991390984</v>
+      </c>
       <c r="E27" s="6" t="n">
-        <v>7.258937972475797</v>
+        <v>6.451909895656484</v>
       </c>
     </row>
     <row r="28">
@@ -963,13 +967,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.381695029473874</v>
+        <v>-2.962892994935443</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.233827819940641</v>
+        <v>-4.897986715373603</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.393833372965699</v>
+        <v>-3.49288098757568</v>
       </c>
     </row>
     <row r="30">
@@ -980,13 +984,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.88498098952483</v>
+        <v>3.288768266272559</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.06449853046204118</v>
+        <v>0.2785557368370745</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.942393040504973</v>
+        <v>1.788551538185541</v>
       </c>
     </row>
     <row r="31">
@@ -1014,13 +1018,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5093773423108413</v>
+        <v>-0.4582950266368262</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.7773933867765047</v>
+        <v>-0.7481077610910956</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4905254760855583</v>
+        <v>-0.5065856405862683</v>
       </c>
     </row>
     <row r="33">
@@ -1031,13 +1035,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.7555931107538542</v>
+        <v>0.9489338459590253</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.009763028772306958</v>
+        <v>0.1124080686155021</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.5814270004614746</v>
+        <v>0.5039914050541353</v>
       </c>
     </row>
     <row r="34">
@@ -1058,7 +1062,7 @@
         <v>0.04118267656509633</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3.351203797872246</v>
+        <v>3.35120379787224</v>
       </c>
     </row>
     <row r="35">
@@ -1069,13 +1073,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.9792986912650183</v>
+        <v>-0.5071994058340891</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.191679882057035</v>
+        <v>-5.250310953481265</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.084852275881293</v>
+        <v>-1.610780015498614</v>
       </c>
     </row>
     <row r="36">
@@ -1086,13 +1090,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>10.77652098948199</v>
+        <v>11.3968548891265</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.157553831660746</v>
+        <v>5.373693548529903</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>8.277375057078295</v>
+        <v>7.829705046634579</v>
       </c>
     </row>
     <row r="37">
@@ -1109,7 +1113,7 @@
         <v>0.003233977383865828</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.263162042756333</v>
+        <v>0.2631620427563325</v>
       </c>
     </row>
     <row r="38">
@@ -1120,13 +1124,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.06983355732232521</v>
+        <v>-0.03213004509981993</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.3440413802040416</v>
+        <v>-0.329456929825885</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.08227960199748509</v>
+        <v>-0.1040067202201133</v>
       </c>
     </row>
     <row r="39">
@@ -1137,13 +1141,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.057669859548341</v>
+        <v>1.151758804860292</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.5133863250263008</v>
+        <v>0.5465906720844592</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.8558890985376354</v>
+        <v>0.8249261072927832</v>
       </c>
     </row>
     <row r="40">
@@ -1164,7 +1168,7 @@
         <v>-2.084279758922689</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8.223160946180155</v>
+        <v>8.223160946180149</v>
       </c>
     </row>
     <row r="41">
@@ -1175,13 +1179,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-9.351366812849514</v>
+        <v>-10.29722635115148</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-8.611461356110784</v>
+        <v>-9.239209575831682</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.609943900319072</v>
+        <v>1.791240660088451</v>
       </c>
     </row>
     <row r="42">
@@ -1192,13 +1196,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.948288369707124</v>
+        <v>5.064942459653558</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.69162428774951</v>
+        <v>3.850557951598818</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>15.49171577475873</v>
+        <v>15.00968688014607</v>
       </c>
     </row>
     <row r="43">
@@ -1215,7 +1219,7 @@
         <v>-0.1020406168812864</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.4025833922102823</v>
+        <v>0.4025833922102821</v>
       </c>
     </row>
     <row r="44">
@@ -1226,13 +1230,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3961838200386985</v>
+        <v>-0.4206309298322728</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3656585400639586</v>
+        <v>-0.3656964450892428</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1051652328815505</v>
+        <v>0.06783200379485357</v>
       </c>
     </row>
     <row r="45">
@@ -1243,13 +1247,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.2952001974695511</v>
+        <v>0.323622457312331</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.283827983694891</v>
+        <v>0.2300594477616026</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.9553776875074312</v>
+        <v>0.9453622390706623</v>
       </c>
     </row>
     <row r="46">
@@ -1281,13 +1285,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.4684410168525508</v>
+        <v>-0.4948708548886007</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.8733362444391395</v>
+        <v>-0.8247494578955282</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1.327735242489719</v>
+        <v>1.373986726385754</v>
       </c>
     </row>
     <row r="48">
@@ -1298,13 +1302,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.338214504445362</v>
+        <v>1.337036992743557</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.8253476654271511</v>
+        <v>0.8834604915966484</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.094042144815142</v>
+        <v>3.131367177868578</v>
       </c>
     </row>
     <row r="49">
@@ -1332,13 +1336,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1261000669191879</v>
+        <v>-0.1326022563873765</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.239701259892541</v>
+        <v>-0.2262832171924074</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.3650702308423035</v>
+        <v>0.3665519272361301</v>
       </c>
     </row>
     <row r="51">
@@ -1349,13 +1353,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.4758803164161775</v>
+        <v>0.4830316264138384</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2894692359474672</v>
+        <v>0.3081765956268483</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.098456939841904</v>
+        <v>1.115936609766203</v>
       </c>
     </row>
     <row r="52">
